--- a/THI.xlsx
+++ b/THI.xlsx
@@ -19,14 +19,14 @@
     <t>thi</t>
   </si>
   <si>
-    <t>aasta</t>
+    <t>Aasta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -39,6 +39,28 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +85,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -71,12 +93,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -386,7 +423,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -551,6 +588,22 @@
       </c>
       <c r="B21" s="1">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4">
+      <c r="A22" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4">
+      <c r="A23" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
